--- a/数据整理/stocks/A股/深证主板/000830-鲁西化工.xlsx
+++ b/数据整理/stocks/A股/深证主板/000830-鲁西化工.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,384 +512,522 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.29</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.93</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9863</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0327</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6621</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>001644</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>汇丰晋信智造先锋股票C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>94.29</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>5.93</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6007</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4892</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2553</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>202027</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>南方高端装备灵活配置混合A</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>93.53</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>5.16</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2544</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>410007</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>华富价值增长混合</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>80.00</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>4.32</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>410003</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华富成长趋势混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>410001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华富竞争力优选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>89.56</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>162907</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>泰信中证锐联基本面400指数（LOF）</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>94.55</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>0.65</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001605</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富兰克林国海沪港深成长精选股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005207</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南方高端装备灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009398</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华富成长企业精选股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003152</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华富天鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003153</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华富天鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010130</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>24.81</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010131</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>24.81</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -889,7 +1037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,15 +1058,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -930,25 +1088,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001643</t>
+          <t>540008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信智造先锋股票A</t>
+          <t>汇丰晋信低碳先锋股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>64.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9820</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -958,25 +1126,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001644</t>
+          <t>001643</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信智造先锋股票C</t>
+          <t>汇丰晋信智造先锋股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>26.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.03</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>8.31</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2113</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -986,26 +1164,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>960003</t>
+          <t>519133</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇丰晋信动态策略混合H</t>
+          <t>海富通改革驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.18</t>
+          <t>69.76</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9603</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1014,26 +1202,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519003</t>
+          <t>540003</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海富通收益增长混合</t>
+          <t>汇丰晋信动态策略混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>78.63</t>
+          <t>26.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3686</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1042,26 +1240,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004958</t>
+          <t>010790</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>圆信永丰优享生活灵活配置混合</t>
+          <t>海富通均衡甄选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>37.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0516</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1070,26 +1278,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000547</t>
+          <t>001644</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>建信健康民生混合</t>
+          <t>汇丰晋信智造先锋股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>73.81</t>
+          <t>10.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8418</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1098,26 +1316,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>165313</t>
+          <t>202027</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>建信优势动力混合(LOF)</t>
+          <t>南方高端装备灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>73.82</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6740</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1126,26 +1354,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>202027</t>
+          <t>410003</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方高端装备灵活配置混合A</t>
+          <t>华富成长趋势混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>10.53</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9.17</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5939</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1154,26 +1392,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005207</t>
+          <t>519003</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方高端装备灵活配置混合C</t>
+          <t>海富通收益增长混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>19.29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>9.17</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>78.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4514</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1182,26 +1430,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>410007</t>
+          <t>009398</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华富价值增长混合</t>
+          <t>华富成长企业精选股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>76.99</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4479</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1210,26 +1468,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005793</t>
+          <t>004958</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华富可转债债券</t>
+          <t>圆信永丰优享生活灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21.92</t>
+          <t>21.72</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3888</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1238,26 +1506,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000729</t>
+          <t>002148</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>建信中小盘先锋股票</t>
+          <t>国寿安保稳惠灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>87.39</t>
+          <t>12.67</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3725</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1266,26 +1544,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000756</t>
+          <t>410001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>建信潜力新蓝筹股票</t>
+          <t>华富竞争力优选混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>90.55</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3104</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1294,26 +1582,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006557</t>
+          <t>010791</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海富通研究精选混合A</t>
+          <t>海富通均衡甄选混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>91.57</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1950</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1322,26 +1620,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006556</t>
+          <t>000729</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>海富通研究精选混合C</t>
+          <t>建信中小盘先锋股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>91.57</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1350,26 +1658,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>410001</t>
+          <t>590003</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华富竞争力优选混合</t>
+          <t>中邮核心优势灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>86.87</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>9.76</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1378,26 +1696,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>410003</t>
+          <t>165313</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华富成长趋势混合</t>
+          <t>建信优势动力混合(LOF)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>91.26</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
+          <t>73.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1406,26 +1734,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>000966</t>
+          <t>501001</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中邮核心科技创新灵活配置混合</t>
+          <t>财通多策略精选混合（LOF）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>82.46</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1434,26 +1772,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>501001</t>
+          <t>410007</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>财通多策略精选混合（LOF）</t>
+          <t>华富价值增长混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>80.79</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1462,26 +1810,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010790</t>
+          <t>960003</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海富通均衡甄选混合A</t>
+          <t>汇丰晋信动态策略混合H</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1490,26 +1848,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>010791</t>
+          <t>008245</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>海富通均衡甄选混合C</t>
+          <t>圆信永丰致优混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1518,26 +1886,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>519117</t>
+          <t>003152</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>浦银安盛基本面400指数</t>
+          <t>华富天鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>4</v>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1546,26 +1924,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>519133</t>
+          <t>005207</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海富通改革驱动灵活配置混合</t>
+          <t>南方高端装备灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>5</v>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1574,26 +1962,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>159990</t>
+          <t>002601</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>银华巨潮小盘价值ETF</t>
+          <t>中银证券价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>97.96</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>5</v>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1602,26 +2000,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>540003</t>
+          <t>000547</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>汇丰晋信动态策略混合A</t>
+          <t>建信健康民生混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>88.18</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
+          <t>73.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1630,26 +2038,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>540008</t>
+          <t>007713</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>汇丰晋信低碳先锋股票</t>
+          <t>华富科技动能混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1658,26 +2076,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>002148</t>
+          <t>000756</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>国寿安保稳惠灵活配置混合</t>
+          <t>建信潜力新蓝筹股票</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>72.00</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1686,26 +2114,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>590003</t>
+          <t>002938</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中邮核心优势灵活配置混合</t>
+          <t>中银证券健康产业灵活配置混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>79.04</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>6</v>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1714,26 +2152,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>002258</t>
+          <t>000966</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>大成国企改革灵活配置混合</t>
+          <t>中邮核心科技创新灵活配置混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>91.27</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1752,15 +2200,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>94.90</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1.37</t>
         </is>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1770,26 +2228,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>008890</t>
+          <t>002258</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中邮价值优选一年定期开放灵活配置混合</t>
+          <t>大成国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>41.82</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>5</v>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -1798,26 +2266,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>002601</t>
+          <t>008246</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中银证券价值精选灵活配置混合</t>
+          <t>圆信永丰致优混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>2</v>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1826,26 +2304,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>002938</t>
+          <t>159990</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中银证券健康产业灵活配置混合</t>
+          <t>银华巨潮小盘价值ETF</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>90.75</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>3</v>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1854,26 +2342,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>007713</t>
+          <t>008135</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华富科技动能混合</t>
+          <t>华宸未来价值先锋混合</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>87.45</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>6</v>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -1882,26 +2380,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>003152</t>
+          <t>006557</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华富天鑫灵活配置混合A</t>
+          <t>海富通研究精选混合A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>5</v>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1920,15 +2428,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>93.31</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>6.42</t>
         </is>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1938,26 +2456,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>008135</t>
+          <t>008890</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华宸未来价值先锋混合</t>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>84.08</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>10</v>
+          <t>41.82</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -1966,26 +2494,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>008245</t>
+          <t>162907</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>圆信永丰致优混合A</t>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>91.30</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>9</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -1994,26 +2532,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>008246</t>
+          <t>005793</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>圆信永丰致优混合C</t>
+          <t>华富可转债债券</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>91.30</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>9</v>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -2022,26 +2570,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>162907</t>
+          <t>519117</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>泰信中证锐联基本面400指数（LOF）</t>
+          <t>浦银安盛基本面400指数</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>0.80</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>6</v>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -2050,26 +2608,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>009398</t>
+          <t>006556</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>华富成长企业精选股票</t>
+          <t>海富通研究精选混合C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>9.45</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>2</v>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000830-鲁西化工.xlsx
+++ b/数据整理/stocks/A股/深证主板/000830-鲁西化工.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2643,4 +2644,2870 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6496</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>102.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6334</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2158</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0701</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8615</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8213</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8078</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7157</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6972</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6123</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>59.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6087</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5443</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4418</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4301</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3452</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3420</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2978</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2435</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2409</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2229</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1985</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1768</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>29.24</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003912</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰达宏利启富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>47.17</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008230</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>九泰天辰量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003913</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>泰达宏利启富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000830-鲁西化工.xlsx
+++ b/数据整理/stocks/A股/深证主板/000830-鲁西化工.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5510,4 +5511,1808 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2630</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0073</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6920</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>52.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6917</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3400</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3209</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3192</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2987</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006557</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008230</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>九泰天辰量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009039</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009040</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006556</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011025</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011026</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000830-鲁西化工.xlsx
+++ b/数据整理/stocks/A股/深证主板/000830-鲁西化工.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7315,4 +7316,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>74</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>41</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000830-鲁西化工.xlsx
+++ b/数据整理/stocks/A股/深证主板/000830-鲁西化工.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7324,7 +7325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7335,17 +7336,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7355,14 +7376,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>46</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.38</v>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7815</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -7371,14 +7414,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>74</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.9</v>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5920</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -7387,14 +7452,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>41</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.19</v>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4404</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -7403,13 +7490,987 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2593</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2545</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2123</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1975</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>46</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>74</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>41</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000830-鲁西化工.xlsx
+++ b/数据整理/stocks/A股/深证主板/000830-鲁西化工.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8369,7 +8370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8380,17 +8381,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8400,14 +8421,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.48</v>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1290</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -8416,14 +8459,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>46</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.38</v>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9185</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -8432,14 +8497,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>74</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19.9</v>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3098</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -8448,14 +8535,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>41</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.19</v>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2175</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -8464,13 +8573,1079 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5702</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5174</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3581</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3046</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2645</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2489</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2354</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014025</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>74</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>41</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000830-鲁西化工.xlsx
+++ b/数据整理/stocks/A股/深证主板/000830-鲁西化工.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9528,7 +9529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9539,17 +9540,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9559,14 +9580,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.7</v>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>154.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.2850</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -9575,14 +9618,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.48</v>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4829</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -9591,14 +9656,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>46</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.38</v>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0934</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -9607,14 +9694,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>74</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19.9</v>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5502</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -9623,14 +9732,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>41</v>
-      </c>
-      <c r="D6" t="n">
-        <v>16.19</v>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -9639,13 +9770,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>74</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>41</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16.19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>14</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000830-鲁西化工.xlsx
+++ b/数据整理/stocks/A股/深证主板/000830-鲁西化工.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>17.82</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>14.7</v>
+        <v>17.82</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>3.48</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>6.38</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D6" t="n">
-        <v>19.9</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D7" t="n">
-        <v>16.19</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>41</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16.19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>14</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>6.6</v>
       </c>
     </row>
@@ -600,6 +617,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信澳中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -959,7 +1298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2117,7 +2456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3161,7 +3500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4965,7 +5304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7831,7 +8170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9445,7 +9784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
